--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Atividade individual 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{227B8E8B-1980-441B-AC19-C2262853F1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CC2060-324A-413F-B9CA-EF247062E306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="22590" windowHeight="13140" xr2:uid="{77294953-3597-4DF6-A79A-DC83BCE1E093}"/>
+    <workbookView xWindow="1110" yWindow="2970" windowWidth="16770" windowHeight="9360" xr2:uid="{77294953-3597-4DF6-A79A-DC83BCE1E093}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>2</v>
